--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_8_26.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_8_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1711671.916531883</v>
+        <v>1709126.730458599</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>138.3038958997682</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>80.36913259236702</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,19 +713,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -826,16 +826,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>139.459062921783</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -859,13 +859,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>169.4196532835177</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -899,10 +899,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -911,7 +911,7 @@
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>15.14483238681376</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,16 +953,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>158.6767990677995</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1054,19 +1054,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>59.66385641544537</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1105,16 +1105,16 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>161.1486436253825</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1139,19 +1139,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>40.32232414915249</v>
+        <v>12.9169039459368</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>45.53513702494451</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1303,7 +1303,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>159.6820259933258</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1345,10 +1345,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>202.3860496764733</v>
       </c>
     </row>
     <row r="11">
@@ -1421,7 +1421,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1531,22 +1531,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>54.10799870228436</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1588,7 +1588,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1661,10 +1661,10 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1768,19 +1768,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>132.6315337216688</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1895,7 +1895,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>95.05806357631725</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>148.0280580960846</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2062,7 +2062,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>83.06560892428077</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2296,7 +2296,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>98.42683230404829</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,13 +2479,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2494,7 +2494,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>184.6141907640395</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>218.2271298596247</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2731,7 +2731,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>42.53134576113585</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2956,7 +2956,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2965,7 +2965,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3004,7 +3004,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>222.8161206669567</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3187,7 +3187,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>28.75188085812055</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3205,7 +3205,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3241,7 +3241,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3427,13 +3427,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>136.4207955213655</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3442,7 +3442,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695504</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3597,7 +3597,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.8176890312854</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3630,10 +3630,10 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>117.0286782364133</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T39" t="n">
-        <v>188.3046392154442</v>
+        <v>188.3046392154443</v>
       </c>
       <c r="U39" t="n">
         <v>225.7478006422472</v>
@@ -3676,7 +3676,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462238</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788184433</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016445</v>
+        <v>123.797182079703</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3803,7 +3803,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3901,22 +3901,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465707</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>60.42721558712974</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>134.4525633547257</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,22 +4135,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>121.8000472740347</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,31 +4304,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>546.109828622464</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="C2" t="n">
-        <v>546.109828622464</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D2" t="n">
-        <v>546.109828622464</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E2" t="n">
-        <v>546.109828622464</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>135.1239238328564</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
@@ -4361,19 +4361,19 @@
         <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W2" t="n">
-        <v>1309.714918859356</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="X2" t="n">
-        <v>936.2491605982757</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="Y2" t="n">
-        <v>546.109828622464</v>
+        <v>2247.308246834948</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4410,13 +4410,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>500.1394333084171</v>
+        <v>527.5811021474123</v>
       </c>
       <c r="C4" t="n">
-        <v>500.1394333084171</v>
+        <v>527.5811021474123</v>
       </c>
       <c r="D4" t="n">
-        <v>500.1394333084171</v>
+        <v>527.5811021474123</v>
       </c>
       <c r="E4" t="n">
-        <v>500.1394333084171</v>
+        <v>527.5811021474123</v>
       </c>
       <c r="F4" t="n">
-        <v>500.1394333084171</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="G4" t="n">
-        <v>331.1396330467495</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>527.5811021474123</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>527.5811021474123</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>527.5811021474123</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>527.5811021474123</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>527.5811021474123</v>
       </c>
       <c r="X4" t="n">
-        <v>500.1394333084171</v>
+        <v>527.5811021474123</v>
       </c>
       <c r="Y4" t="n">
-        <v>500.1394333084171</v>
+        <v>527.5811021474123</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>847.8148076117928</v>
+        <v>1919.063478780785</v>
       </c>
       <c r="C5" t="n">
-        <v>478.8522906713811</v>
+        <v>1550.100961840373</v>
       </c>
       <c r="D5" t="n">
-        <v>478.8522906713811</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4565,19 +4565,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2681.851280526491</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2681.851280526491</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2681.851280526491</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2681.851280526491</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2350.788393182921</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W5" t="n">
-        <v>1998.019737912806</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X5" t="n">
-        <v>1624.553979651726</v>
+        <v>2305.663318844906</v>
       </c>
       <c r="Y5" t="n">
-        <v>1234.414647675915</v>
+        <v>2305.663318844906</v>
       </c>
     </row>
     <row r="6">
@@ -4644,25 +4644,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>471.4038777286579</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>471.4038777286579</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>216.719389522771</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4778,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1249.712458167646</v>
+        <v>882.2370508438753</v>
       </c>
       <c r="C8" t="n">
-        <v>1249.712458167646</v>
+        <v>882.2370508438753</v>
       </c>
       <c r="D8" t="n">
-        <v>891.4467595608955</v>
+        <v>523.9713522371248</v>
       </c>
       <c r="E8" t="n">
-        <v>505.6585069626513</v>
+        <v>523.9713522371248</v>
       </c>
       <c r="F8" t="n">
-        <v>94.67260217304374</v>
+        <v>112.9854474475173</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>99.93806972434881</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>99.93806972434881</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>138.1828821533151</v>
+        <v>242.5828808341008</v>
       </c>
       <c r="K8" t="n">
-        <v>541.6499951733606</v>
+        <v>646.0499938541462</v>
       </c>
       <c r="L8" t="n">
         <v>1094.46325341956</v>
@@ -4829,25 +4829,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2540.93405351505</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2326.134191782762</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2326.134191782762</v>
       </c>
       <c r="V8" t="n">
-        <v>2366.086203674652</v>
+        <v>1995.071304439191</v>
       </c>
       <c r="W8" t="n">
-        <v>2013.317548404538</v>
+        <v>1642.302649169077</v>
       </c>
       <c r="X8" t="n">
-        <v>1639.851790143458</v>
+        <v>1268.836890907997</v>
       </c>
       <c r="Y8" t="n">
-        <v>1249.712458167646</v>
+        <v>1268.836890907997</v>
       </c>
     </row>
     <row r="9">
@@ -4890,7 +4890,7 @@
         <v>1006.392177849189</v>
       </c>
       <c r="M9" t="n">
-        <v>1233.514064314702</v>
+        <v>1185.889514203793</v>
       </c>
       <c r="N9" t="n">
         <v>1432.170805967367</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>510.040998651502</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>510.040998651502</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>510.040998651502</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>362.1279050691089</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>215.2379575711986</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -4993,19 +4993,19 @@
         <v>1053.877663279709</v>
       </c>
       <c r="U10" t="n">
-        <v>764.7254868573889</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="V10" t="n">
-        <v>510.040998651502</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="W10" t="n">
-        <v>510.040998651502</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="X10" t="n">
-        <v>510.040998651502</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="Y10" t="n">
-        <v>510.040998651502</v>
+        <v>849.4473100711502</v>
       </c>
     </row>
     <row r="11">
@@ -5027,10 +5027,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
@@ -5054,7 +5054,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5127,13 +5127,13 @@
         <v>923.0670414349511</v>
       </c>
       <c r="M12" t="n">
-        <v>1501.8401750111</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>2129.438138565707</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>986.1256051221279</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>817.189422194221</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>667.0727827818853</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>519.1596891994922</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F13" t="n">
-        <v>372.2697417015818</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5224,25 +5224,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1616.556199993915</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1388.566649095898</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1167.774069952368</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5291,7 +5291,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5355,25 +5355,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>849.3843576263199</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>680.448174698413</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>530.3315352860773</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E16" t="n">
-        <v>382.4184417036842</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F16" t="n">
-        <v>235.5284942057738</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2312.991837396757</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>2023.916610740955</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1769.232122535068</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1479.814952498107</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1251.82540160009</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1031.03282245656</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5495,13 +5495,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,25 +5510,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5589,28 +5589,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>849.3843576263199</v>
+        <v>803.2707707770332</v>
       </c>
       <c r="C19" t="n">
-        <v>680.448174698413</v>
+        <v>634.3345878491264</v>
       </c>
       <c r="D19" t="n">
-        <v>530.3315352860773</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>382.4184417036842</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782968</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038354</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797756</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570819</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704551</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="X19" t="n">
-        <v>1166.195182806534</v>
+        <v>1205.711814750803</v>
       </c>
       <c r="Y19" t="n">
-        <v>945.402603663004</v>
+        <v>984.919235607273</v>
       </c>
     </row>
     <row r="20">
@@ -5726,46 +5726,46 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5783,19 +5783,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5829,22 +5829,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>484.8243144841094</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>980.1499206998682</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M21" t="n">
-        <v>1577.52840832642</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400703</v>
       </c>
       <c r="C22" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="D22" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="E22" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000582</v>
+        <v>177.7213185270434</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V22" t="n">
-        <v>1755.431557602304</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W22" t="n">
-        <v>1466.014387565343</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1238.024836667326</v>
+        <v>916.2946447138402</v>
       </c>
       <c r="Y22" t="n">
-        <v>1138.603793935964</v>
+        <v>695.50206557031</v>
       </c>
     </row>
     <row r="23">
@@ -5978,19 +5978,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,7 +5999,7 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
@@ -6069,25 +6069,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349513</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N24" t="n">
-        <v>2148.04349261611</v>
+        <v>1318.79311422913</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1870.702844468417</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2294.325993963485</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2527.587654338368</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263526</v>
+        <v>801.6605733532803</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356194</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232836</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>2010.58356491783</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1721.508338262028</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1721.508338262028</v>
       </c>
       <c r="W25" t="n">
-        <v>1280.315625093766</v>
+        <v>1432.091168225067</v>
       </c>
       <c r="X25" t="n">
-        <v>1280.315625093766</v>
+        <v>1204.10161732705</v>
       </c>
       <c r="Y25" t="n">
-        <v>1280.315625093766</v>
+        <v>983.30903818352</v>
       </c>
     </row>
     <row r="26">
@@ -6206,40 +6206,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6312,19 +6312,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1072.713683962606</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R28" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S28" t="n">
-        <v>2254.869721166297</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="29">
@@ -6452,19 +6452,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,10 +6473,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6540,25 +6540,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>119.2902967703784</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969303</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951537</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>577.8620388433919</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121648</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121648</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6619,52 +6619,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1752.394291958027</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1497.70980375214</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1208.292633715179</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>980.3030828171618</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>759.5105036736317</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
@@ -6695,13 +6695,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6710,16 +6710,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6780,25 +6780,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438171</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6926,13 +6926,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
@@ -6947,19 +6947,19 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
         <v>4606.285157492578</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,10 +7008,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
         <v>243.4633055756266</v>
@@ -7020,19 +7020,19 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M36" t="n">
-        <v>1072.713683962606</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951537</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190824</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1089.575996120531</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>920.6398131926237</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>770.5231737802879</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>622.6100801978948</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>2264.108249235165</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>2264.108249235165</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>2009.423761029278</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1720.006590992318</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>1492.0170400943</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>1271.22446095077</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7160,7 +7160,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,52 +7169,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192638</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111728</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075834</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332391</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014785</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355945</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106802</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7239,10 +7239,10 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G39" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
         <v>93.81666304797187</v>
@@ -7251,28 +7251,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756271</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468486</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>577.3880777468486</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1174.766565373402</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1802.36452892801</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O39" t="n">
-        <v>2354.274259167299</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,7 +7306,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188007</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
         <v>402.7245934908938</v>
@@ -7321,7 +7321,7 @@
         <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057737</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7330,31 +7330,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782961</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038352</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797761</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910812</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570821</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279806</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853365</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580265</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
         <v>2254.869721166297</v>
@@ -7363,7 +7363,7 @@
         <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533435</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
         <v>1491.508541327549</v>
@@ -7372,10 +7372,10 @@
         <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925705</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490404</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7400,34 +7400,34 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852255</v>
@@ -7451,7 +7451,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7494,22 +7494,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M42" t="n">
-        <v>1072.713683962606</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N42" t="n">
-        <v>1700.311647517212</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2252.221377756499</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263528</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C43" t="n">
-        <v>929.730977335621</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232852</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>378.6527890600114</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>378.6527890600114</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>2091.550948547923</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1836.866460342036</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1547.449290305075</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1319.459739407058</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>1098.667160263528</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7622,46 +7622,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7722,25 +7722,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>390.823249958218</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D46" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E46" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7804,52 +7804,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8058,7 @@
         <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8067,7 +8067,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>435.9238900028825</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142014</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8450,13 +8450,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>63.64207105006805</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>417.6612145504504</v>
+        <v>312.2066704284449</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8538,10 +8538,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>48.10560617263471</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>48.10560617263477</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8702,7 +8702,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -8711,7 +8711,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8933,16 +8933,16 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
         <v>4.547473508864641e-13</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -9401,13 +9401,13 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>-1.591615728102624e-12</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -10358,7 +10358,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>-5.400124791776761e-13</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10838,13 +10838,13 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>-1.139111345336538e-11</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>-5.400124791776761e-13</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11297,7 +11297,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>-1.031568468623973e-12</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>111.4161395899845</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23549,7 +23549,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23656,19 +23656,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.294712846225</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>84.77391660561949</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>84.77391660562004</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>0.5874149221277207</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194312</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>120.1578210480465</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24367,13 +24367,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24409,28 +24409,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>32.79125956324873</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>68.29586847696629</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>138.4949402405088</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24844,7 +24844,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>63.36835372228745</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25075,7 +25075,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25315,13 +25315,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>9.000252501565768</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,16 +25357,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856539</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.22910392193702</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>57.22910392194156</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25789,16 +25789,16 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>105.0969227051391</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25831,16 +25831,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>151.7319110345184</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26023,25 +26023,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>45.44677382459312</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>892740.8113791056</v>
+        <v>892740.8113791054</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>892740.8113791056</v>
+        <v>892740.8113791054</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>892740.8113791056</v>
+        <v>892740.8113791054</v>
       </c>
     </row>
     <row r="9">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>892740.8113791056</v>
+        <v>892740.8113791054</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>892740.8113791056</v>
+        <v>892740.8113791054</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>892740.8113791053</v>
+        <v>892740.8113791056</v>
       </c>
     </row>
     <row r="15">
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117844</v>
+        <v>533677.1504117845</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117844</v>
+        <v>533677.1504117848</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.1504117845</v>
+        <v>533677.1504117848</v>
       </c>
       <c r="E2" t="n">
         <v>524645.289798504</v>
       </c>
       <c r="F2" t="n">
+        <v>524645.2897985039</v>
+      </c>
+      <c r="G2" t="n">
         <v>524645.289798504</v>
       </c>
-      <c r="G2" t="n">
-        <v>524645.2897985039</v>
-      </c>
       <c r="H2" t="n">
+        <v>524645.2897985041</v>
+      </c>
+      <c r="I2" t="n">
         <v>524645.289798504</v>
-      </c>
-      <c r="I2" t="n">
-        <v>524645.2897985037</v>
       </c>
       <c r="J2" t="n">
         <v>524645.2897985039</v>
       </c>
       <c r="K2" t="n">
-        <v>524645.2897985037</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="L2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985041</v>
       </c>
       <c r="M2" t="n">
         <v>524645.289798504</v>
       </c>
       <c r="N2" t="n">
-        <v>524645.2897985041</v>
+        <v>524645.289798504</v>
       </c>
       <c r="O2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.2897985037</v>
       </c>
       <c r="P2" t="n">
         <v>524645.289798504</v>
@@ -26369,7 +26369,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>184756.2785481117</v>
+        <v>184756.2785481116</v>
       </c>
       <c r="E3" t="n">
         <v>771052.6913808064</v>
@@ -26381,7 +26381,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124208.5107080586</v>
+        <v>124208.5107080585</v>
       </c>
       <c r="N3" t="n">
-        <v>1.726551545289112e-09</v>
+        <v>1.569592313899193e-10</v>
       </c>
       <c r="O3" t="n">
-        <v>-1.81488412975644e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,16 +26424,16 @@
         <v>176266.9759012793</v>
       </c>
       <c r="E4" t="n">
-        <v>5677.536566682747</v>
+        <v>5677.536566682751</v>
       </c>
       <c r="F4" t="n">
-        <v>5677.536566682751</v>
+        <v>5677.536566682752</v>
       </c>
       <c r="G4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="H4" t="n">
-        <v>5677.536566682719</v>
+        <v>5677.536566682754</v>
       </c>
       <c r="I4" t="n">
         <v>5677.536566682745</v>
@@ -26445,19 +26445,19 @@
         <v>5677.536566682745</v>
       </c>
       <c r="L4" t="n">
-        <v>5677.536566682736</v>
+        <v>5677.53656668275</v>
       </c>
       <c r="M4" t="n">
         <v>5677.536566682744</v>
       </c>
       <c r="N4" t="n">
-        <v>5677.536566682536</v>
+        <v>5677.536566682736</v>
       </c>
       <c r="O4" t="n">
         <v>5677.536566682744</v>
       </c>
       <c r="P4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682721</v>
       </c>
     </row>
     <row r="5">
@@ -26503,7 +26503,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="N5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="O5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-349072.2223292029</v>
+        <v>-349072.2223292028</v>
       </c>
       <c r="C6" t="n">
-        <v>240895.6568853416</v>
+        <v>240895.656885342</v>
       </c>
       <c r="D6" t="n">
-        <v>85091.85079154672</v>
+        <v>85091.85079154701</v>
       </c>
       <c r="E6" t="n">
-        <v>-353207.4679728923</v>
+        <v>-353242.205898328</v>
       </c>
       <c r="F6" t="n">
-        <v>417845.2234079141</v>
+        <v>417810.4854824783</v>
       </c>
       <c r="G6" t="n">
-        <v>417845.223407914</v>
+        <v>417810.4854824784</v>
       </c>
       <c r="H6" t="n">
-        <v>417845.223407914</v>
+        <v>417810.4854824785</v>
       </c>
       <c r="I6" t="n">
-        <v>417845.2234079139</v>
+        <v>417810.4854824784</v>
       </c>
       <c r="J6" t="n">
-        <v>241422.004215321</v>
+        <v>241387.2662898853</v>
       </c>
       <c r="K6" t="n">
-        <v>417845.2234079139</v>
+        <v>417810.4854824783</v>
       </c>
       <c r="L6" t="n">
-        <v>417845.2234079141</v>
+        <v>417810.4854824785</v>
       </c>
       <c r="M6" t="n">
-        <v>293636.7126998556</v>
+        <v>293601.9747744199</v>
       </c>
       <c r="N6" t="n">
-        <v>417845.2234079127</v>
+        <v>417810.4854824783</v>
       </c>
       <c r="O6" t="n">
-        <v>417845.2234079159</v>
+        <v>417810.4854824782</v>
       </c>
       <c r="P6" t="n">
-        <v>417845.2234079141</v>
+        <v>417810.4854824784</v>
       </c>
     </row>
   </sheetData>
@@ -26771,7 +26771,7 @@
         <v>1367.975500341674</v>
       </c>
       <c r="N3" t="n">
-        <v>1367.975500341676</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="O3" t="n">
         <v>1367.975500341674</v>
@@ -26820,7 +26820,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26963,7 +26963,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>215.7324361209785</v>
+        <v>215.7324361209784</v>
       </c>
       <c r="E3" t="n">
         <v>774.4994000036087</v>
@@ -26975,28 +26975,28 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>2.501110429875553e-12</v>
-      </c>
       <c r="O3" t="n">
-        <v>-1.802851826748218e-12</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.421015345093</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,25 +27379,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>226.9689958712394</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>333.415037428428</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,19 +27433,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27546,16 +27546,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>16.71182592001219</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>45.19995918853699</v>
@@ -27579,13 +27579,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>42.72588566650123</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27619,10 +27619,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,7 +27631,7 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27661,10 +27661,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>39.33357018799796</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27673,16 +27673,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>211.0543016106695</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27774,28 +27774,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27825,16 +27825,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>125.3743547112085</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27859,19 +27859,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>372.5945797967843</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>72.96090386894579</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.1547862223006</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28023,7 +28023,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>7.238750561244672</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
         <v>152.7120966692326</v>
@@ -28065,10 +28065,10 @@
         <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>16.19860367562146</v>
       </c>
     </row>
     <row r="11">
@@ -28384,7 +28384,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -28500,7 +28500,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>-1.131184035330079e-12</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -28615,7 +28615,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>-3.410605131648481e-13</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28743,7 +28743,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>1.131184035330079e-12</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -28995,7 +28995,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>-9.426533627750662e-13</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29472,7 +29472,7 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -30523,7 +30523,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -30624,7 +30624,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>-1.508245380440106e-12</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -31276,13 +31276,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31300,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31388,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31458,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31473,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31847,16 +31847,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>726.7533607666135</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>616.9033572954396</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -32075,28 +32075,28 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>270.9486956727256</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32309,31 +32309,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>433.9798411722591</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,34 +32540,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>381.6404378718164</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32576,13 +32576,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32789,37 +32789,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>551.7051287319848</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>171.4104471179106</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,37 +33026,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>368.6279838366847</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33500,37 +33500,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>583.1096135868572</v>
+        <v>652.0478969157701</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33737,37 +33737,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>545.3845241768652</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>405.637736314577</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348444</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135352</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067236</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663292</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817589</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162579</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175694</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159445</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460046</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236523</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669234</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043732</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292903</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651533</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078754</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659455</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521106</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.995851442076</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422595</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862135</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.27904900718</v>
+        <v>428.7353800421384</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437257</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>334.7693860946094</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742449</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937736</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275958</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189908</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121574</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869289</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796265</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355184</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.751989058816</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392053</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106796</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920064</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
-        <v>298.353214041732</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515931</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
-        <v>110.918144667048</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532775</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
-        <v>10.54013910099324</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467224</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34199,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34211,37 +34211,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>245.8118639189577</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>437.8531046913764</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,34 +34436,34 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>390.1398273256871</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34472,13 +34472,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34778,7 +34778,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,7 +34787,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>515.9012490932192</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
@@ -34948,10 +34948,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35027,13 +35027,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,13 +35170,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>85.09080841712189</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K8" t="n">
         <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
-        <v>558.3972305517163</v>
+        <v>452.9426864297107</v>
       </c>
       <c r="M8" t="n">
         <v>188.5852654802098</v>
@@ -35258,10 +35258,10 @@
         <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>229.4160469348618</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N9" t="n">
-        <v>200.663375406732</v>
+        <v>248.7689815793668</v>
       </c>
       <c r="O9" t="n">
         <v>554.9858674269929</v>
@@ -35422,7 +35422,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
@@ -35431,7 +35431,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35495,16 +35495,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>584.6193268445951</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>485.5616452121063</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35653,7 +35653,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
@@ -35662,7 +35662,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q14" t="n">
         <v>371.5675334924728</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>128.8146617507074</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35957,31 +35957,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>291.8458072502408</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.0464832629545</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,25 +36197,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>243.7989988974574</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060445</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,28 +36437,28 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>409.1088842875403</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>25.73094315394662</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,25 +36677,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>237.2862717533515</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,25 +36750,25 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066232</v>
       </c>
       <c r="Q28" t="n">
         <v>120.4022572998984</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>25.73094315394599</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,28 +37148,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>440.9755796648388</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,22 +37388,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>406.830144396991</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>274.2960242312436</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317682</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396429</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367784</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462706</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902967</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193536</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243179</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683696</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924739</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902411</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754093</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496679005</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641952</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238467</v>
+        <v>297.3936679588052</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992812</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>200.7949786802792</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295373</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096355</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191322</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010459</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899081</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060461</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
-        <v>295.6317733066255</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998987</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,25 +37862,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>103.6778299969394</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>303.8786972770462</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,19 +38099,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
